--- a/ahaha.xlsx
+++ b/ahaha.xlsx
@@ -341,309 +341,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="E1">
-        <v>-0</v>
-      </c>
-      <c r="F1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>-0.3674483376140998</v>
-      </c>
-      <c r="B2">
-        <v>41.16381763386224</v>
-      </c>
-      <c r="E2">
-        <v>-24.92</v>
-      </c>
-      <c r="F2">
-        <v>25.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>-26.74187394834699</v>
-      </c>
-      <c r="B3">
-        <v>25.14226628899728</v>
-      </c>
-      <c r="E3">
-        <v>-25</v>
-      </c>
-      <c r="F3">
-        <v>24.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>-26.64043456082181</v>
-      </c>
-      <c r="B4">
-        <v>25.10314158364081</v>
-      </c>
-      <c r="E4">
-        <v>-25</v>
-      </c>
-      <c r="F4">
-        <v>24.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>-26.62024010730488</v>
-      </c>
-      <c r="B5">
-        <v>25.13237247718788</v>
-      </c>
-      <c r="E5">
-        <v>-24.89</v>
-      </c>
-      <c r="F5">
-        <v>25.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>-26.28249129729696</v>
-      </c>
-      <c r="B6">
-        <v>25.63984207153747</v>
-      </c>
-      <c r="E6">
-        <v>-25.02</v>
-      </c>
-      <c r="F6">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>-26.29583628821142</v>
-      </c>
-      <c r="B7">
-        <v>25.4754323136181</v>
-      </c>
-      <c r="E7">
-        <v>-25.05</v>
-      </c>
-      <c r="F7">
-        <v>24.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>-26.31668904595505</v>
-      </c>
-      <c r="B8">
-        <v>25.35687532460687</v>
-      </c>
-      <c r="E8">
-        <v>-24.96</v>
-      </c>
-      <c r="F8">
-        <v>25.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>-26.17895729162778</v>
-      </c>
-      <c r="B9">
-        <v>25.70271833528925</v>
-      </c>
-      <c r="E9">
-        <v>-24.95</v>
-      </c>
-      <c r="F9">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>-26.21317504513525</v>
-      </c>
-      <c r="B10">
-        <v>25.58999158873978</v>
-      </c>
-      <c r="E10">
-        <v>-25.02</v>
-      </c>
-      <c r="F10">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>-26.21737487289329</v>
-      </c>
-      <c r="B11">
-        <v>25.65141953662579</v>
-      </c>
-      <c r="E11">
-        <v>-25</v>
-      </c>
-      <c r="F11">
-        <v>24.87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>-26.24788112450624</v>
-      </c>
-      <c r="B12">
-        <v>25.5119522697026</v>
-      </c>
-      <c r="E12">
-        <v>-25</v>
-      </c>
-      <c r="F12">
-        <v>24.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>-26.29150198540466</v>
-      </c>
-      <c r="B13">
-        <v>25.37208359726831</v>
-      </c>
-      <c r="E13">
-        <v>-25</v>
-      </c>
-      <c r="F13">
-        <v>24.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>-26.22967006148358</v>
-      </c>
-      <c r="B14">
-        <v>25.48786897044902</v>
-      </c>
-      <c r="E14">
-        <v>-24.97</v>
-      </c>
-      <c r="F14">
-        <v>25.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>-26.10545295322394</v>
-      </c>
-      <c r="B15">
-        <v>25.82181184847981</v>
-      </c>
-      <c r="E15">
-        <v>-25.02</v>
-      </c>
-      <c r="F15">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>-26.17522984047032</v>
-      </c>
-      <c r="B16">
-        <v>25.57513384746228</v>
-      </c>
-      <c r="E16">
-        <v>-25</v>
-      </c>
-      <c r="F16">
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>-26.12116355227948</v>
-      </c>
-      <c r="B17">
-        <v>25.60321774897178</v>
-      </c>
-      <c r="E17">
-        <v>-24.95</v>
-      </c>
-      <c r="F17">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>-26.03007863803514</v>
-      </c>
-      <c r="B18">
-        <v>25.89538477179272</v>
-      </c>
-      <c r="E18">
-        <v>-24.94</v>
-      </c>
-      <c r="F18">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>-25.87433688329134</v>
-      </c>
-      <c r="B19">
-        <v>26.20931748294813</v>
-      </c>
-      <c r="E19">
-        <v>-25.38</v>
-      </c>
-      <c r="F19">
-        <v>24.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>-25.87873524075173</v>
-      </c>
-      <c r="B20">
-        <v>26.24012485782024</v>
-      </c>
-      <c r="E20">
-        <v>-25.02</v>
-      </c>
-      <c r="F20">
-        <v>25.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>-25.30259166877255</v>
-      </c>
-      <c r="B21">
-        <v>26.92819358771015</v>
-      </c>
-      <c r="E21">
-        <v>-24.92</v>
-      </c>
-      <c r="F21">
-        <v>25.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>-25.2872643279099</v>
-      </c>
-      <c r="B22">
-        <v>26.8565041769215</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
